--- a/evaluation/results/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.900355871886121</v>
+        <v>0.9395017793594306</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E2">
-        <v>0.3333333333333333</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="F2">
-        <v>0.4166666666666667</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="G2">
-        <v>0.4814814814814815</v>
+        <v>0.4273972602739726</v>
       </c>
       <c r="H2">
-        <v>0.7106741573033708</v>
+        <v>0.6974317817014447</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="L2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9723320158102767</v>
+        <v>0.9699248120300752</v>
       </c>
       <c r="C2">
-        <v>0.9213483146067416</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="D2">
-        <v>0.9461538461538461</v>
+        <v>0.9681050656660413</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D3">
-        <v>0.3333333333333333</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.900355871886121</v>
+        <v>0.9395017793594306</v>
       </c>
       <c r="C4">
-        <v>0.900355871886121</v>
+        <v>0.9395017793594306</v>
       </c>
       <c r="D4">
-        <v>0.900355871886121</v>
+        <v>0.9395017793594306</v>
       </c>
       <c r="E4">
-        <v>0.900355871886121</v>
+        <v>0.9395017793594306</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6111660079051384</v>
+        <v>0.6849624060150377</v>
       </c>
       <c r="C5">
-        <v>0.7106741573033708</v>
+        <v>0.6974317817014446</v>
       </c>
       <c r="D5">
-        <v>0.6397435897435897</v>
+        <v>0.6909490845571585</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9363439438481989</v>
+        <v>0.9415299815374736</v>
       </c>
       <c r="C6">
-        <v>0.900355871886121</v>
+        <v>0.9395017793594306</v>
       </c>
       <c r="D6">
-        <v>0.915621863308696</v>
+        <v>0.9404880995768999</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.4273972602739726</v>
       </c>
       <c r="H2">
-        <v>0.6974317817014447</v>
+        <v>0.7455524344569289</v>
       </c>
       <c r="I2">
         <v>12</v>

--- a/evaluation/results/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9395017793594306</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="D2">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4137931034482759</v>
+        <v>0.09491525423728814</v>
       </c>
       <c r="F2">
-        <v>0.4225352112676056</v>
+        <v>0.2077151335311573</v>
       </c>
       <c r="G2">
-        <v>0.4273972602739726</v>
+        <v>0.5768621236133122</v>
       </c>
       <c r="H2">
-        <v>0.7455524344569289</v>
+        <v>0.7486623863028358</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>534</v>
       </c>
       <c r="K2">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9699248120300752</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9662921348314607</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9681050656660413</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="C3">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4137931034482759</v>
+        <v>0.09491525423728814</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9395017793594306</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="C4">
-        <v>0.9395017793594306</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="D4">
-        <v>0.9395017793594306</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="E4">
-        <v>0.9395017793594306</v>
+        <v>0.0498220640569395</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6849624060150377</v>
+        <v>0.02491103202846975</v>
       </c>
       <c r="C5">
-        <v>0.6974317817014446</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.6909490845571585</v>
+        <v>0.04745762711864407</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9415299815374736</v>
+        <v>0.002482238066893783</v>
       </c>
       <c r="C6">
-        <v>0.9395017793594306</v>
+        <v>0.0498220640569395</v>
       </c>
       <c r="D6">
-        <v>0.9404880995768999</v>
+        <v>0.004728873876590867</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
